--- a/tax_deficit_simulator/data/TWZ/2017/twz_domestic.xlsx
+++ b/tax_deficit_simulator/data/TWZ/2017/twz_domestic.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10105"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Paul-Emmanuel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Paul-Emmanuel/Desktop/EU Tax Observatory/4. Own Work/0. Tax Deficit/Platform/tax_deficit_simulator/tax_deficit_simulator/data/TWZ/2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FA121E-D4A8-7B48-8AFC-CB528F075350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ACBDB9A-4382-F84E-A6C3-F35F4492C927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1D53ACCC-9E7E-1546-9C77-7B48BFAF1A5C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -24,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -60,6 +64,9 @@
     <t>AUT</t>
   </si>
   <si>
+    <t>VGB</t>
+  </si>
+  <si>
     <t>BHS</t>
   </si>
   <si>
@@ -78,6 +85,9 @@
     <t>BMU</t>
   </si>
   <si>
+    <t>BES</t>
+  </si>
+  <si>
     <t>BRA</t>
   </si>
   <si>
@@ -123,15 +133,15 @@
     <t>DEU</t>
   </si>
   <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
     <t>GIB</t>
   </si>
   <si>
-    <t>GRC</t>
-  </si>
-  <si>
-    <t>GRD</t>
-  </si>
-  <si>
     <t>GGY</t>
   </si>
   <si>
@@ -222,6 +232,27 @@
     <t>RUS</t>
   </si>
   <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>SXM</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
     <t>KNA</t>
   </si>
   <si>
@@ -231,24 +262,6 @@
     <t>VCT</t>
   </si>
   <si>
-    <t>SYC</t>
-  </si>
-  <si>
-    <t>SGP</t>
-  </si>
-  <si>
-    <t>SVK</t>
-  </si>
-  <si>
-    <t>SVN</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
     <t>SWE</t>
   </si>
   <si>
@@ -265,15 +278,6 @@
   </si>
   <si>
     <t>USA</t>
-  </si>
-  <si>
-    <t>VGB</t>
-  </si>
-  <si>
-    <t>BES</t>
-  </si>
-  <si>
-    <t>SXM</t>
   </si>
 </sst>
 </file>
@@ -282,8 +286,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,14 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -313,9 +313,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,10 +330,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,12 +628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F5488D-A021-D148-AF74-DA39B4118A37}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -652,10 +649,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0.15814848834825596</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2">
+        <v>0.15809086539687262</v>
+      </c>
+      <c r="B2">
         <v>0.05</v>
       </c>
       <c r="C2" t="s">
@@ -663,10 +660,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1.4966615897239409E-2</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3">
+        <v>1.4961162664083484E-2</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -674,10 +671,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2.9268645626281394E-2</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4">
+        <v>2.9257981308452027E-2</v>
+      </c>
+      <c r="B4">
         <v>4.4461771845509403E-2</v>
       </c>
       <c r="C4" t="s">
@@ -685,10 +682,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0.14062713747408453</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5">
+        <v>0.14057589859857911</v>
+      </c>
+      <c r="B5">
         <v>0.05</v>
       </c>
       <c r="C5" t="s">
@@ -696,10 +693,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>162.39567218485169</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6">
+        <v>162.33650173042048</v>
+      </c>
+      <c r="B6">
         <v>0.29682183632835152</v>
       </c>
       <c r="C6" t="s">
@@ -707,10 +704,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>39.918620908359934</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7">
+        <v>39.926907333556187</v>
+      </c>
+      <c r="B7">
         <v>0.1771303557511523</v>
       </c>
       <c r="C7" t="s">
@@ -718,659 +715,659 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>5.0625657660191781E-2</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8">
+        <v>5.0607211705756355E-2</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0.15291917091304208</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9">
+        <v>0.15286345331470691</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>3.1444675431187696</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10">
+        <v>3.1433218255576594</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>0.10715006242607902</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11">
+        <v>0.10711102125090001</v>
+      </c>
+      <c r="B11">
         <v>2.57785992274801E-2</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>52.301702348007794</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="A12">
+        <v>52.312559289812931</v>
+      </c>
+      <c r="B12">
         <v>0.18742426983704399</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>4.1593482672293645E-2</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="A13">
+        <v>4.1578327679318863E-2</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>0.96263365334805118</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14">
+        <v>0.96228290834387065</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>2.2510481292579487E-2</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="A15">
+        <v>2.25022793781465E-2</v>
+      </c>
+      <c r="B15">
         <v>0.05</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>263.94941670438214</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="A16">
+        <v>263.85324414803796</v>
+      </c>
+      <c r="B16">
         <v>0.1951211404096205</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>103.57740670871252</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="A17">
+        <v>103.53966726565159</v>
+      </c>
+      <c r="B17">
         <v>0.34611388196176218</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>0.43998769882752309</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="A18">
+        <v>0.43982738499813651</v>
+      </c>
+      <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>62.183887467222256</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="A19">
+        <v>62.161230158500715</v>
+      </c>
+      <c r="B19">
         <v>0.15479746660886659</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>2056.4365578963084</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="A20">
+        <v>2055.6872750859807</v>
+      </c>
+      <c r="B20">
         <v>0.20396568806595239</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>55.922317459461233</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="A21">
+        <v>55.901941615127427</v>
+      </c>
+      <c r="B21">
         <v>0.29059680575582669</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>13.055992214811214</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="A22">
+        <v>13.051235136115661</v>
+      </c>
+      <c r="B22">
         <v>0.1165985538315733</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0.42194571494744582</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="A23">
+        <v>0.42179197489167436</v>
+      </c>
+      <c r="B23">
         <v>1.9511092513115999E-3</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>1.7387743816846459</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="A24">
+        <v>1.7391353216048919</v>
+      </c>
+      <c r="B24">
         <v>0.16850316349676739</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>17.515503088831327</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="A25">
+        <v>17.5191390086807</v>
+      </c>
+      <c r="B25">
         <v>0.19987578983562221</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>50.720910072858757</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="A26">
+        <v>50.7314388691358</v>
+      </c>
+      <c r="B26">
         <v>0.14950708919067349</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>2.8577935199142024</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="A27">
+        <v>2.8583867491313004</v>
+      </c>
+      <c r="B27">
         <v>0.1153432105477777</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>22.700019127002715</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="A28">
+        <v>22.704731263999665</v>
+      </c>
+      <c r="B28">
         <v>0.20095461174702789</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>169.72520539685925</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="A29">
+        <v>169.76043745614479</v>
+      </c>
+      <c r="B29">
         <v>0.27138098390108978</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>555.53157947503439</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="A30">
+        <v>555.64689836062519</v>
+      </c>
+      <c r="B30">
         <v>0.22750000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>23.153565108981134</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="A31">
+        <v>23.158371394392212</v>
+      </c>
+      <c r="B31">
         <v>0.18641603978549989</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>2.2958501526172334E-2</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="A32">
+        <v>2.2950136371177213E-2</v>
+      </c>
+      <c r="B32">
         <v>4.7718744947522602E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>0.14118970690946361</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="A33">
+        <v>0.14113826305627192</v>
+      </c>
+      <c r="B33">
         <v>0.05</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>0.26374255392076562</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="A34">
+        <v>0.26364645673690362</v>
+      </c>
+      <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>48.398658602711713</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="A35">
+        <v>48.381024077204628</v>
+      </c>
+      <c r="B35">
         <v>0.17659863513001631</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>11.924611231414826</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="A36">
+        <v>11.927086577424157</v>
+      </c>
+      <c r="B36">
         <v>0.10626839819341539</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>2.4218681538549793</v>
-      </c>
-      <c r="B37" s="1">
+      <c r="A37">
+        <v>2.4209857224619005</v>
+      </c>
+      <c r="B37">
         <v>0.18534366223782689</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>397.38484637704209</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="A38">
+        <v>397.24005531439951</v>
+      </c>
+      <c r="B38">
         <v>9.9375912586799398E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>63.186468395818146</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="A39">
+        <v>63.199584829499045</v>
+      </c>
+      <c r="B39">
         <v>4.3730990037364803E-2</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>0.38207814932814305</v>
-      </c>
-      <c r="B40" s="1">
+      <c r="A40">
+        <v>0.38193893541055635</v>
+      </c>
+      <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>51.770447675428478</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="A41">
+        <v>51.751584605533516</v>
+      </c>
+      <c r="B41">
         <v>0.16576042245572681</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>216.34507188901463</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="A42">
+        <v>216.38998143784153</v>
+      </c>
+      <c r="B42">
         <v>0.17596888878420769</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>649.42141911524084</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="A43">
+        <v>649.1847960576838</v>
+      </c>
+      <c r="B43">
         <v>0.26194231763861359</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>0.39222365885850335</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="A44">
+        <v>0.3920807483251062</v>
+      </c>
+      <c r="B44">
         <v>2.7364227815319199E-2</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>265.00618279271549</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="A45">
+        <v>264.90962519329207</v>
+      </c>
+      <c r="B45">
         <v>0.18360409812068559</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>3.224709157847311</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="A46">
+        <v>3.2253785524959269</v>
+      </c>
+      <c r="B46">
         <v>0.1029671731891415</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>4.7275491106713146</v>
-      </c>
-      <c r="B47" s="1">
+      <c r="A47">
+        <v>4.7258265818288843</v>
+      </c>
+      <c r="B47">
         <v>4.9777531207312903E-2</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>0.90657241314768067</v>
-      </c>
-      <c r="B48" s="1">
+      <c r="A48">
+        <v>0.90624209460569594</v>
+      </c>
+      <c r="B48">
         <v>0.05</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>43.250826485089327</v>
-      </c>
-      <c r="B49" s="1">
+      <c r="A49">
+        <v>43.259804619358235</v>
+      </c>
+      <c r="B49">
         <v>2.79630257365918E-2</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>3.2885847128923835</v>
-      </c>
-      <c r="B50" s="1">
+      <c r="A50">
+        <v>3.2873864848283016</v>
+      </c>
+      <c r="B50">
         <v>4.6687589199484E-2</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>0.86173797951654119</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="A51">
+        <v>0.86191686163079129</v>
+      </c>
+      <c r="B51">
         <v>4.7649291571561302E-2</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>2.593415399892909E-2</v>
-      </c>
-      <c r="B52" s="1">
+      <c r="A52">
+        <v>2.5924704635797918E-2</v>
+      </c>
+      <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>9.0596693169820983E-2</v>
-      </c>
-      <c r="B53" s="1">
+      <c r="A53">
+        <v>9.0563683376932408E-2</v>
+      </c>
+      <c r="B53">
         <v>4.5803143613001203E-2</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>325.31732969810315</v>
-      </c>
-      <c r="B54" s="1">
+      <c r="A54">
+        <v>325.19879714133236</v>
+      </c>
+      <c r="B54">
         <v>0.11500632352984</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>0.32287944292273141</v>
-      </c>
-      <c r="B55" s="1">
+      <c r="A55">
+        <v>0.32276179863389537</v>
+      </c>
+      <c r="B55">
         <v>0.05</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>115.15600044768571</v>
-      </c>
-      <c r="B56" s="1">
+      <c r="A56">
+        <v>115.17990487028088</v>
+      </c>
+      <c r="B56">
         <v>0.1048490384327054</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>40.329716585515222</v>
-      </c>
-      <c r="B57" s="1">
+      <c r="A57">
+        <v>40.315022058097455</v>
+      </c>
+      <c r="B57">
         <v>0.18235080869942949</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>74.668119490844447</v>
-      </c>
-      <c r="B58" s="1">
+      <c r="A58">
+        <v>74.64091342985553</v>
+      </c>
+      <c r="B58">
         <v>0.22304226581791881</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>4.2913788514324445</v>
-      </c>
-      <c r="B59" s="1">
+      <c r="A59">
+        <v>4.2898152454978806</v>
+      </c>
+      <c r="B59">
         <v>4.9808236803571597E-2</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>74.475813760053938</v>
-      </c>
-      <c r="B60" s="1">
+      <c r="A60">
+        <v>74.491273669379709</v>
+      </c>
+      <c r="B60">
         <v>0.1000410995333994</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>23.732253330793686</v>
-      </c>
-      <c r="B61" s="1">
+      <c r="A61">
+        <v>23.737179742014547</v>
+      </c>
+      <c r="B61">
         <v>0.23389494144374531</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>10.627076483582346</v>
-      </c>
-      <c r="B62" s="1">
+      <c r="A62">
+        <v>10.623204404133745</v>
+      </c>
+      <c r="B62">
         <v>3.29386043189248E-2</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>272.50927544407654</v>
-      </c>
-      <c r="B63" s="1">
+      <c r="A63">
+        <v>272.40998401932484</v>
+      </c>
+      <c r="B63">
         <v>0.1449642836638633</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>1.5336641104609904E-2</v>
-      </c>
-      <c r="B64" s="1">
+      <c r="A64">
+        <v>1.5331053049143898E-2</v>
+      </c>
+      <c r="B64">
         <v>4.9340614007041698E-2</v>
       </c>
       <c r="C64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>32.127528709284441</v>
+      </c>
+      <c r="B65">
+        <v>8.3008339349371796E-2</v>
+      </c>
+      <c r="C65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>32.13923895592162</v>
-      </c>
-      <c r="B65" s="1">
-        <v>8.3008339349371796E-2</v>
-      </c>
-      <c r="C65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>4.4686392757755197E-2</v>
+      </c>
+      <c r="B66">
+        <v>4.9429983217453802E-2</v>
+      </c>
+      <c r="C66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>4.4702680617467482E-2</v>
-      </c>
-      <c r="B66" s="1">
-        <v>4.9429983217453802E-2</v>
-      </c>
-      <c r="C66" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>6.6533538234747622</v>
-      </c>
-      <c r="B67" s="1">
+      <c r="A67">
+        <v>6.6547349463068608</v>
+      </c>
+      <c r="B67">
         <v>0.25136691949526291</v>
       </c>
       <c r="C67" t="s">
@@ -1378,10 +1375,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>2.3578402925944375</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="A68">
+        <v>2.3583297400443919</v>
+      </c>
+      <c r="B68">
         <v>0.18430597322014899</v>
       </c>
       <c r="C68" t="s">
@@ -1389,10 +1386,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>73.05352381648288</v>
-      </c>
-      <c r="B69" s="1">
+      <c r="A69">
+        <v>73.026906049248907</v>
+      </c>
+      <c r="B69">
         <v>0.24568487670387729</v>
       </c>
       <c r="C69" t="s">
@@ -1400,10 +1397,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>150.37661379569542</v>
-      </c>
-      <c r="B70" s="1">
+      <c r="A70">
+        <v>150.40782941720562</v>
+      </c>
+      <c r="B70">
         <v>0.17854513612704259</v>
       </c>
       <c r="C70" t="s">
@@ -1411,102 +1408,102 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>2.2905951141719449E-2</v>
-      </c>
-      <c r="B71" s="1">
+      <c r="A71">
+        <v>2.2897605133971832E-2</v>
+      </c>
+      <c r="B71">
         <v>4.9266765661179601E-2</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>3.5796004277770917E-2</v>
-      </c>
-      <c r="B72" s="1">
+      <c r="A72">
+        <v>3.5782961652857083E-2</v>
+      </c>
+      <c r="B72">
         <v>4.5720053840228897E-2</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>2.2960954341336253E-2</v>
-      </c>
-      <c r="B73" s="1">
+      <c r="A73">
+        <v>2.2952588292633892E-2</v>
+      </c>
+      <c r="B73">
         <v>4.7601747922099098E-2</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>42.348466008708613</v>
-      </c>
-      <c r="B74" s="1">
+      <c r="A74">
+        <v>42.357256828325426</v>
+      </c>
+      <c r="B74">
         <v>0.23240677496786699</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>37.297072640181845</v>
-      </c>
-      <c r="B75" s="1">
+      <c r="A75">
+        <v>37.283483086301608</v>
+      </c>
+      <c r="B75">
         <v>0.21188216848158231</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>225.43792941773293</v>
-      </c>
-      <c r="B76" s="1">
+      <c r="A76">
+        <v>225.35578889914513</v>
+      </c>
+      <c r="B76">
         <v>5.7737739505825003E-2</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>3.5550598505297432E-2</v>
-      </c>
-      <c r="B77" s="1">
+      <c r="A77">
+        <v>3.5537645296381461E-2</v>
+      </c>
+      <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>380.62392440372815</v>
-      </c>
-      <c r="B78" s="1">
+      <c r="A78">
+        <v>380.48524034724221</v>
+      </c>
+      <c r="B78">
         <v>0.16514206638750609</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>1873.2580811597352</v>
-      </c>
-      <c r="B79" s="1">
+      <c r="A79">
+        <v>1872.5755412223223</v>
+      </c>
+      <c r="B79">
         <v>0.21434974303175791</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
